--- a/medicine/Enfance/Lucie_Rauzier-Fontayne/Lucie_Rauzier-Fontayne.xlsx
+++ b/medicine/Enfance/Lucie_Rauzier-Fontayne/Lucie_Rauzier-Fontayne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucie Rauzier-Fontayne[1] (née à Nîmes le 18 mars 1895 et morte à Alès le 14 août 1986), est une romancière française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucie Rauzier-Fontayne (née à Nîmes le 18 mars 1895 et morte à Alès le 14 août 1986), est une romancière française.
 Elle a écrit de nombreux romans pour la jeunesse après avoir publié des récits d'inspiration protestante et huguenote. Entre 1953 et 1977, elle a publié chez Hachette plus d'une vingtaine de romans, qui rencontrent un grand succès et sont traduits à l'étranger.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucie Rauzier-Fontayne est la fille de Lucien Fontayne, directeur du conservatoire de Nîmes et organiste au Grand Temple, et de Marie Bertrand, sœur du pasteur André-Numa Bertrand[2]. Elle épouse le pasteur Pierre Rauzier, pasteur au Temple Neuf à Strasbourg[2]. Elle écrit d'abord des récits destinés à un public protestant, puis, après la guerre, un grand nombre de romans pour la jeunesse. Vers la fin de sa vie, elle traduit également des œuvres en allemand[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucie Rauzier-Fontayne est la fille de Lucien Fontayne, directeur du conservatoire de Nîmes et organiste au Grand Temple, et de Marie Bertrand, sœur du pasteur André-Numa Bertrand. Elle épouse le pasteur Pierre Rauzier, pasteur au Temple Neuf à Strasbourg. Elle écrit d'abord des récits destinés à un public protestant, puis, après la guerre, un grand nombre de romans pour la jeunesse. Vers la fin de sa vie, elle traduit également des œuvres en allemand.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans protestants
-La Vie protestante à la campagne (1925), études de MM. les pasteurs Émile Durand, X..., Charles Maurin, Élie Giran, Mme L. Rauzier-Fontayne, Union nationale des Églises réformées de France, 32 p.
+          <t>Romans protestants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Vie protestante à la campagne (1925), études de MM. les pasteurs Émile Durand, X..., Charles Maurin, Élie Giran, Mme L. Rauzier-Fontayne, Union nationale des Églises réformées de France, 32 p.
 Vieux récits, jeunes visages : nouvelles huguenotes (1925), Éditions de la Cause, 191 p.
 Aux temps bibliques : contes (1926), éditions de la Cause, 191 p.
 L'Hôte de Noël (1928), Éditions de la Cause, réédité en 1950 aux éditions Oberlin, 40 p.
@@ -560,43 +579,228 @@
 Le Prisonnier du Fort d'Alès (1941), illustration de Source, Alès : impr. de F. Claparède, 64 p.
 L'Étrange Compagnie (1944), Fédération française des Éclaireuses, 140 p.
 Matines de Paris, le récit de Nicolas Muss, serviteur de Monsieur l'Amiral (1946), Strasbourg : Éditions Oberlin, 112 p.
-Claude Brousson (1948). Préface de Franz J. Leenhardt. Illustrations de Lise Rauzier. Coll. les Vainqueurs, no 21, Genève : Éditions Labor et Fides, 224 p.
-Romans protestants pour la jeunesse
-Du soleil sur les vieilles pierres... (1926), coll. Clio, Librairie Fischbacher (Paris)
+Claude Brousson (1948). Préface de Franz J. Leenhardt. Illustrations de Lise Rauzier. Coll. les Vainqueurs, no 21, Genève : Éditions Labor et Fides, 224 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans protestants pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Du soleil sur les vieilles pierres... (1926), coll. Clio, Librairie Fischbacher (Paris)
 L'étoile marchait devant eux : contes et nouvelles de Noël (1930), Librairie évangélique (Strasbourg)
 Histoires pour Lise... (1934), illustrations de Pierrette Bovet, Éditions Je sers
 Contes du temps présent... (1934), Union nationale des Églises réformées
-Marikele : une petite Alsacienne d'aujourd'hui (1938)[4], Éditions Fides
+Marikele : une petite Alsacienne d'aujourd'hui (1938), Éditions Fides
 L'Auréole de perles (1945), illustrations de Source, Oberlin (Strasbourg)
 Rosée du matin et ses amis (1946), images de Lise Rauzier, coll. de la Toupie verte, Éditions Arma
 Tamita, la petite Esquimau (1946), images de Lise Rauzier, coll. de la Toupie verte, Éditions Arma
 Livie (1947), Oberlin (Strasbourg)
-La Coiffe d'or (1948), Oberlin (Strasbourg)
-Romans pour la jeunesse aux éditions Hachette
-Collection Idéal-Bibliothèque
-La Troupe Jéromisi (1953), no 41, illustrations d'Albert Chazelle
+La Coiffe d'or (1948), Oberlin (Strasbourg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse aux éditions Hachette</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Collection Idéal-Bibliothèque</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Troupe Jéromisi (1953), no 41, illustrations d'Albert Chazelle
 Le Rêve de Caroline (1955), no 82, illustrations d'Albert Chazelle
 L'Invitée de Camargue (1956), no 118, illustrations de François Batet
 La Maison du chèvrefeuille (1957), no 136, illustrations de François Batet
 La Mission de Jeannou (1957), no 144, illustrations de Philippe Daure
 Le Sourire de Brigitte (1960), no 199, illustrations de François Batet
 Les Amis de Blanche-Épine (1962), no 221, illustrations d'Albert Chazelle
-La Chanson merveilleuse (1963), no 246, illustrations de François Batet
-Collection Nouvelle Bibliothèque rose
-La Petite Fille aux oiseaux (1958), no 32, illustrations de Marianne Clouzot
+La Chanson merveilleuse (1963), no 246, illustrations de François Batet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse aux éditions Hachette</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Collection Nouvelle Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Petite Fille aux oiseaux (1958), no 32, illustrations de Marianne Clouzot
 Un cadeau pour Amina (1961), no 78, illustrations d'Albert Chazelle
 Seul sur les routes (1962), no 114, illustrations de François Batet
-La Grande Aventure de Bouba (1971), no 371, illustrations de Jacques Fromont
-Collection Bibliothèque rose
-La Petite Fille à la guitare (1971), illustrations de Patrice Harispe
+La Grande Aventure de Bouba (1971), no 371, illustrations de Jacques Fromont</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse aux éditions Hachette</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Collection Bibliothèque rose</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Petite Fille à la guitare (1971), illustrations de Patrice Harispe
 Une chance sur mille (1972), illustrations de Annie-Claude Martin
 La Petite Fille aux marionnettes (1973), illustrations de Patrice Harispe
 Moka, l'ourson voyageur (1974), illustrations de Pierre Dessons
 La Maison des trois girouettes (1976), illustrations d'Henriette Munière
-Le Garçon qui en savait trop (1977), illustrations de Pierre Dessons
-Collection Bibliothèque verte
-Marina et les visiteurs clandestins (1964), no 256, illustrations de Philippe Daure
-Le Cousin du Brésil (1966)[5], no 294, illustrations de François Batet
+Le Garçon qui en savait trop (1977), illustrations de Pierre Dessons</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucie_Rauzier-Fontayne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse aux éditions Hachette</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Collection Bibliothèque verte</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Marina et les visiteurs clandestins (1964), no 256, illustrations de Philippe Daure
+Le Cousin du Brésil (1966), no 294, illustrations de François Batet
 L'Invitée inattendue (1973), illustrations de Charles Popineau
 Juliette et les motocyclistes (1975), illustrations de Robert Bressy</t>
         </is>
